--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.44083508782539</v>
+        <v>3.15163</v>
       </c>
       <c r="H2">
-        <v>1.44083508782539</v>
+        <v>9.454890000000001</v>
       </c>
       <c r="I2">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="J2">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.982961250116128</v>
+        <v>1.847798333333333</v>
       </c>
       <c r="N2">
-        <v>0.982961250116128</v>
+        <v>5.543395</v>
       </c>
       <c r="O2">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="P2">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="Q2">
-        <v>1.416285059140026</v>
+        <v>5.823576661283334</v>
       </c>
       <c r="R2">
-        <v>1.416285059140026</v>
+        <v>52.41218995155</v>
       </c>
       <c r="S2">
-        <v>1.241393633459449E-05</v>
+        <v>3.170588572650576E-05</v>
       </c>
       <c r="T2">
-        <v>1.241393633459449E-05</v>
+        <v>3.170588572650576E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.44083508782539</v>
+        <v>3.15163</v>
       </c>
       <c r="H3">
-        <v>1.44083508782539</v>
+        <v>9.454890000000001</v>
       </c>
       <c r="I3">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="J3">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.43350331277843</v>
+        <v>0.4798556666666667</v>
       </c>
       <c r="N3">
-        <v>0.43350331277843</v>
+        <v>1.439567</v>
       </c>
       <c r="O3">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="P3">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="Q3">
-        <v>0.6246067837397067</v>
+        <v>1.512327514736667</v>
       </c>
       <c r="R3">
-        <v>0.6246067837397067</v>
+        <v>13.61094763263</v>
       </c>
       <c r="S3">
-        <v>5.47476568891343E-06</v>
+        <v>8.233717207171545E-06</v>
       </c>
       <c r="T3">
-        <v>5.47476568891343E-06</v>
+        <v>8.233717207171547E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.44083508782539</v>
+        <v>3.15163</v>
       </c>
       <c r="H4">
-        <v>1.44083508782539</v>
+        <v>9.454890000000001</v>
       </c>
       <c r="I4">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="J4">
-        <v>0.0002893000800039257</v>
+        <v>0.0006291248881010851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4909163543803</v>
+        <v>34.337334</v>
       </c>
       <c r="N4">
-        <v>21.4909163543803</v>
+        <v>103.012002</v>
       </c>
       <c r="O4">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="P4">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="Q4">
-        <v>30.96486635291165</v>
+        <v>108.21857195442</v>
       </c>
       <c r="R4">
-        <v>30.96486635291165</v>
+        <v>973.96714758978</v>
       </c>
       <c r="S4">
-        <v>0.0002714113779804178</v>
+        <v>0.0005891852851674077</v>
       </c>
       <c r="T4">
-        <v>0.0002714113779804178</v>
+        <v>0.0005891852851674077</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4950.09967254897</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H5">
-        <v>4950.09967254897</v>
+        <v>14915.263184</v>
       </c>
       <c r="I5">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819714</v>
       </c>
       <c r="J5">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819713</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.982961250116128</v>
+        <v>1.847798333333333</v>
       </c>
       <c r="N5">
-        <v>0.982961250116128</v>
+        <v>5.543395</v>
       </c>
       <c r="O5">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="P5">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="Q5">
-        <v>4865.756162328172</v>
+        <v>9186.799484207742</v>
       </c>
       <c r="R5">
-        <v>4865.756162328172</v>
+        <v>82681.19535786968</v>
       </c>
       <c r="S5">
-        <v>0.04264903228978477</v>
+        <v>0.05001661892339967</v>
       </c>
       <c r="T5">
-        <v>0.04264903228978477</v>
+        <v>0.05001661892339967</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4950.09967254897</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H6">
-        <v>4950.09967254897</v>
+        <v>14915.263184</v>
       </c>
       <c r="I6">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819714</v>
       </c>
       <c r="J6">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819713</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.43350331277843</v>
+        <v>0.4798556666666667</v>
       </c>
       <c r="N6">
-        <v>0.43350331277843</v>
+        <v>1.439567</v>
       </c>
       <c r="O6">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="P6">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="Q6">
-        <v>2145.8846066334</v>
+        <v>2385.724519555703</v>
       </c>
       <c r="R6">
-        <v>2145.8846066334</v>
+        <v>21471.52067600133</v>
       </c>
       <c r="S6">
-        <v>0.01880897826056895</v>
+        <v>0.01298884060286191</v>
       </c>
       <c r="T6">
-        <v>0.01880897826056895</v>
+        <v>0.01298884060286191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4950.09967254897</v>
+        <v>4971.754394666666</v>
       </c>
       <c r="H7">
-        <v>4950.09967254897</v>
+        <v>14915.263184</v>
       </c>
       <c r="I7">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819714</v>
       </c>
       <c r="J7">
-        <v>0.9939126575944206</v>
+        <v>0.9924561027819713</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4909163543803</v>
+        <v>34.337334</v>
       </c>
       <c r="N7">
-        <v>21.4909163543803</v>
+        <v>103.012002</v>
       </c>
       <c r="O7">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="P7">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="Q7">
-        <v>106382.1780085952</v>
+        <v>170716.7912156371</v>
       </c>
       <c r="R7">
-        <v>106382.1780085952</v>
+        <v>1536451.120940734</v>
       </c>
       <c r="S7">
-        <v>0.932454647044067</v>
+        <v>0.9294506432557097</v>
       </c>
       <c r="T7">
-        <v>0.932454647044067</v>
+        <v>0.9294506432557096</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.8766695925988</v>
+        <v>34.63986933333333</v>
       </c>
       <c r="H8">
-        <v>28.8766695925988</v>
+        <v>103.919608</v>
       </c>
       <c r="I8">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927541</v>
       </c>
       <c r="J8">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927542</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.982961250116128</v>
+        <v>1.847798333333333</v>
       </c>
       <c r="N8">
-        <v>0.982961250116128</v>
+        <v>5.543395</v>
       </c>
       <c r="O8">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="P8">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="Q8">
-        <v>28.3846472419313</v>
+        <v>64.00749282101778</v>
       </c>
       <c r="R8">
-        <v>28.3846472419313</v>
+        <v>576.06743538916</v>
       </c>
       <c r="S8">
-        <v>0.0002487953971322804</v>
+        <v>0.000348482448340623</v>
       </c>
       <c r="T8">
-        <v>0.0002487953971322804</v>
+        <v>0.000348482448340623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.8766695925988</v>
+        <v>34.63986933333333</v>
       </c>
       <c r="H9">
-        <v>28.8766695925988</v>
+        <v>103.919608</v>
       </c>
       <c r="I9">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927541</v>
       </c>
       <c r="J9">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927542</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.43350331277843</v>
+        <v>0.4798556666666667</v>
       </c>
       <c r="N9">
-        <v>0.43350331277843</v>
+        <v>1.439567</v>
       </c>
       <c r="O9">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="P9">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="Q9">
-        <v>12.51813193039974</v>
+        <v>16.62213759219289</v>
       </c>
       <c r="R9">
-        <v>12.51813193039974</v>
+        <v>149.599238329736</v>
       </c>
       <c r="S9">
-        <v>0.0001097231745891577</v>
+        <v>9.049758004081715E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001097231745891577</v>
+        <v>9.049758004081717E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.8766695925988</v>
+        <v>34.63986933333333</v>
       </c>
       <c r="H10">
-        <v>28.8766695925988</v>
+        <v>103.919608</v>
       </c>
       <c r="I10">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927541</v>
       </c>
       <c r="J10">
-        <v>0.005798042325575402</v>
+        <v>0.006914772329927542</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.4909163543803</v>
+        <v>34.337334</v>
       </c>
       <c r="N10">
-        <v>21.4909163543803</v>
+        <v>103.012002</v>
       </c>
       <c r="O10">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="P10">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="Q10">
-        <v>620.5860908076179</v>
+        <v>1189.440763015024</v>
       </c>
       <c r="R10">
-        <v>620.5860908076179</v>
+        <v>10704.96686713522</v>
       </c>
       <c r="S10">
-        <v>0.005439523753853964</v>
+        <v>0.006475792301546101</v>
       </c>
       <c r="T10">
-        <v>0.005439523753853964</v>
+        <v>0.006475792301546102</v>
       </c>
     </row>
   </sheetData>
